--- a/output/bi.pet_change_flow.json/game.result.xlsx
+++ b/output/bi.pet_change_flow.json/game.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
         <v>1000000</v>
       </c>
       <c r="F2" t="n">
-        <v>800</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -577,7 +577,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detail.pet_id</t>
+          <t>detail.prop_info.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,13 +592,13 @@
         <v>1000000</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1001100</v>
+        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>1000000</v>
       </c>
       <c r="F4" t="n">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>24.5</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1000000</v>
       </c>
       <c r="F5" t="n">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>1000000</v>
       </c>
       <c r="F6" t="n">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>17.75</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -794,19 +794,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>1000000</v>
       </c>
       <c r="F7" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>12.75</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detail.prop_info.0</t>
+          <t>detail.pet_id</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1000000</v>
       </c>
       <c r="F8" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>8.5</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1001100</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -876,318 +876,6 @@
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>48</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>36</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>detail.prop_info.0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
